--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>979906.6551780693</v>
+        <v>982157.4146950694</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>153.7680905114898</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>158.8413341243909</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>13.9434706946005</v>
+        <v>183.2728386341077</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="C5" t="n">
-        <v>199.4261177940757</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>65.17935300803268</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>7.692106705274854</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>143.7773912969451</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="V9" t="n">
-        <v>13.94347069460051</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V11" t="n">
         <v>205.5178444382804</v>
@@ -1433,7 +1433,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,55 +1616,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>37.36227613112857</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1856,61 +1856,61 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>120.1832748619387</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>120.6787096659971</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,14 +2078,14 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.249728832748761</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>7.833310151693974</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2412,13 +2412,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>32.67315832411465</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>109.4031921034047</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>74.49518425430648</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2792,28 +2792,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8731252940988646</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>81.96584385420475</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2919,7 +2919,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>41.7314554634327</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>26.80888552205021</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>157.6032867115065</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>241.0142888776591</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>70.63127589868714</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>210.6909294702016</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3439,43 +3439,43 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,28 +3503,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>62.4162677022923</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,31 +3579,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>5.4761733385883</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>70.70484482708511</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>46.81577624213776</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="43">
@@ -3904,46 +3904,46 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,20 +3974,20 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>109.6205003900232</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -4074,7 +4074,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.80116626716755</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4153,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.84423892561444</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>38.84423892561444</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>38.84423892561444</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>38.84423892561444</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4361,19 +4361,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>661.6255857082823</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>661.6255857082823</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>454.031803447393</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>246.4380211865037</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.84423892561444</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4431,28 +4431,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U3" t="n">
-        <v>238.8736563016672</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V3" t="n">
-        <v>238.8736563016672</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W3" t="n">
-        <v>31.27987404077794</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>333.5911742363817</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>333.5911742363817</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>660.5968149695918</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C5" t="n">
-        <v>459.1562919452729</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D5" t="n">
-        <v>459.1562919452729</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1562919452729</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F5" t="n">
-        <v>251.5625096843836</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
         <v>28.51141680214578</v>
@@ -4571,10 +4571,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4592,25 +4592,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D6" t="n">
-        <v>665.3671633390675</v>
+        <v>571.967438644756</v>
       </c>
       <c r="E6" t="n">
         <v>506.1297083336119</v>
@@ -4647,49 +4647,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
         <v>16.44142755506243</v>
@@ -4747,28 +4747,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.792197863116</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C8" t="n">
-        <v>189.1984156022267</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D8" t="n">
-        <v>189.1984156022267</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E8" t="n">
-        <v>189.1984156022267</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="F8" t="n">
-        <v>43.96872742349432</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4814,7 +4814,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4823,31 +4823,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X8" t="n">
-        <v>604.3859801240053</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y8" t="n">
-        <v>604.3859801240053</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,13 +4890,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.7514872519972</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4908,25 +4908,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>446.4674385625565</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V9" t="n">
-        <v>432.3831247296267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W9" t="n">
-        <v>224.7893424687375</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>224.7893424687375</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4948,10 +4948,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
         <v>16.44142755506243</v>
@@ -5054,7 +5054,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5072,13 +5072,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
         <v>16.44142755506243</v>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
         <v>16.44142755506243</v>
@@ -5124,13 +5124,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
         <v>639.4279001397708</v>
@@ -5145,25 +5145,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="W12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5221,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F14" t="n">
-        <v>639.2227743377304</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G14" t="n">
-        <v>431.628992076841</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5285,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>784.3317048933958</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>609.8786756122688</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5364,10 +5364,10 @@
         <v>232.5025681519757</v>
       </c>
       <c r="M15" t="n">
+        <v>232.5025681519757</v>
+      </c>
+      <c r="N15" t="n">
         <v>435.9652341458732</v>
-      </c>
-      <c r="N15" t="n">
-        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>807.2329312674061</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>633.815586718075</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>784.3317048933958</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>784.3317048933958</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5543,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>466.183833194304</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5598,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>842.159468979326</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>842.159468979326</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>842.159468979326</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.399170214372</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5689,34 +5689,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.6192102101089</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C20" t="n">
-        <v>223.6192102101089</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D20" t="n">
-        <v>223.6192102101089</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E20" t="n">
-        <v>223.6192102101089</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F20" t="n">
-        <v>223.6192102101089</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6192102101089</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H20" t="n">
-        <v>223.6192102101089</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X20" t="n">
-        <v>467.067986854209</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>492.48569440222</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0326651210929</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>169.0982554598417</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>169.0982554598417</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>22.56369748672662</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5835,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="22">
@@ -5926,22 +5926,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.7568786610034</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C24" t="n">
-        <v>338.3038493798764</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D24" t="n">
-        <v>338.3038493798764</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="E24" t="n">
-        <v>338.3038493798764</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>191.7692914067614</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>53.03846598937687</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.7568786610034</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6309,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>610.1001040146123</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X27" t="n">
-        <v>402.2486038090794</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="Y27" t="n">
-        <v>194.4883050441255</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.216849647356</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C30" t="n">
-        <v>111.216849647356</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D30" t="n">
-        <v>111.216849647356</v>
+        <v>660.701031422288</v>
       </c>
       <c r="E30" t="n">
-        <v>111.216849647356</v>
+        <v>501.4635764168325</v>
       </c>
       <c r="F30" t="n">
-        <v>111.216849647356</v>
+        <v>354.9290184437175</v>
       </c>
       <c r="G30" t="n">
-        <v>111.216849647356</v>
+        <v>216.198193026333</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>102.8290574339123</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6549,7 +6549,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
         <v>712.019119383956</v>
@@ -6567,25 +6567,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X30" t="n">
-        <v>279.432186667424</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y30" t="n">
-        <v>279.432186667424</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6637,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.0360370837871</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>517.4848137278872</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>517.4848137278872</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>274.0360370837871</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W32" t="n">
-        <v>274.0360370837871</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X32" t="n">
-        <v>274.0360370837871</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.0360370837871</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6780,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>318.9674160535941</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E35" t="n">
         <v>749.627473042513</v>
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342.668582052591</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>203.9950018326204</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>577.8206902843338</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>342.668582052591</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>342.668582052591</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>342.668582052591</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>342.668582052591</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7123,22 +7123,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>569.2254314512334</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C38" t="n">
-        <v>325.7766548071333</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D38" t="n">
-        <v>325.7766548071333</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E38" t="n">
-        <v>82.32787816303323</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F38" t="n">
-        <v>82.32787816303323</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W38" t="n">
-        <v>812.6742080953335</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y38" t="n">
-        <v>569.2254314512334</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>582.7883107557723</v>
+        <v>358.5031156175915</v>
       </c>
       <c r="C39" t="n">
-        <v>582.7883107557723</v>
+        <v>184.0500863364645</v>
       </c>
       <c r="D39" t="n">
-        <v>433.853901094521</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
-        <v>433.853901094521</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X39" t="n">
-        <v>582.7883107557723</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y39" t="n">
-        <v>582.7883107557723</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="40">
@@ -7363,16 +7363,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
         <v>829.5248650203655</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
         <v>16.44142755506243</v>
@@ -7412,49 +7412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7521,19 +7521,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
         <v>16.44142755506243</v>
@@ -7649,10 +7649,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7673,22 +7673,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
         <v>224.0352098159517</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>379.2691667366082</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C45" t="n">
-        <v>379.2691667366082</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="D45" t="n">
-        <v>379.2691667366082</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="E45" t="n">
-        <v>379.2691667366082</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="F45" t="n">
-        <v>268.5413885648676</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>166.9834583668443</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>53.6143227744236</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7728,16 +7728,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
         <v>570.0333416264414</v>
@@ -7752,25 +7752,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V45" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W45" t="n">
-        <v>547.4845037566762</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X45" t="n">
-        <v>547.4845037566762</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y45" t="n">
-        <v>547.4845037566762</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
         <v>16.44142755506243</v>
@@ -7837,19 +7837,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7994,7 +7994,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,10 +8070,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8219,13 +8219,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8462,10 +8462,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8538,16 +8538,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.628815381816</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8702,10 +8702,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,16 +8772,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,13 +9012,13 @@
         <v>230.174158102173</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,7 +10668,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10914,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23312,7 +23312,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V11" t="n">
         <v>122.2344140318545</v>
@@ -23321,7 +23321,7 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972316</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23385,25 +23385,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>237.0049211400612</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>197.3710773843827</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>225.8559283604741</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>39.44647140371328</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23546,13 +23546,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,19 +23574,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23619,25 +23619,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>85.46777213178478</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>168.4107090723489</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23744,16 +23744,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,31 +23808,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>27.2617907027001</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,7 +23868,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>112.1218774834282</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>36.78129424836629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,13 +23984,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,7 +24032,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>134.0937883304619</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24166,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,7 +24209,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>351.4177255634863</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24291,7 +24291,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>149.811770303707</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24300,13 +24300,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>79.56228591238181</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,19 +24494,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>51.00955661900684</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24579,13 +24579,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>123.3973950460206</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>131.277800949171</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24680,28 +24680,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>268.4601236753789</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,19 +24765,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>111.3623189423976</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.430788997210328</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,7 +24807,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,10 +24932,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>297.7433466523345</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,22 +24968,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>139.7242981278171</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,7 +25011,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>48.16969849197102</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,7 +25160,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>165.8617568640524</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>87.01380455671381</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,7 +25248,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25281,13 +25281,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>15.25045261077318</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25327,7 +25327,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,28 +25391,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>352.8864698128427</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,31 +25467,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>141.9688922260505</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>74.36436756629877</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,22 +25518,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>211.7044234967879</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25716,19 +25716,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>98.25343615124612</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25874,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25913,10 +25913,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25928,10 +25928,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.2178212748161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25953,7 +25953,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>35.44871200336073</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25962,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>52.59546658424753</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25992,7 +25992,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26041,13 +26041,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410526.9679401457</v>
+        <v>410526.9679401458</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432434.5631969671</v>
+        <v>432434.5631969672</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432434.5631969672</v>
+        <v>432434.5631969671</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432434.5631969672</v>
+        <v>432434.5631969671</v>
       </c>
     </row>
     <row r="14">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>197197.0522936645</v>
@@ -26338,16 +26338,16 @@
         <v>207700.8406641654</v>
       </c>
       <c r="K2" t="n">
+        <v>207700.8406641655</v>
+      </c>
+      <c r="L2" t="n">
         <v>207700.8406641654</v>
-      </c>
-      <c r="L2" t="n">
-        <v>207700.8406641655</v>
       </c>
       <c r="M2" t="n">
         <v>207700.8406641655</v>
       </c>
       <c r="N2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="O2" t="n">
         <v>197197.0522936645</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344526.7929117181</v>
+        <v>344263.9595179307</v>
       </c>
       <c r="C4" t="n">
-        <v>344526.7929117181</v>
+        <v>344263.9595179307</v>
       </c>
       <c r="D4" t="n">
-        <v>344526.7929117181</v>
+        <v>344263.9595179308</v>
       </c>
       <c r="E4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="F4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="G4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="H4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="I4" t="n">
-        <v>59029.60829747977</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="L4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="M4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="N4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.582499173</v>
       </c>
       <c r="O4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="P4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53627.4717299218</v>
+        <v>53890.3051237092</v>
       </c>
       <c r="C6" t="n">
-        <v>122501.2283116115</v>
+        <v>122764.0617053991</v>
       </c>
       <c r="D6" t="n">
-        <v>122501.2283116115</v>
+        <v>122764.0617053988</v>
       </c>
       <c r="E6" t="n">
-        <v>128712.6485875471</v>
+        <v>128975.4819813344</v>
       </c>
       <c r="F6" t="n">
-        <v>128712.6485875471</v>
+        <v>128975.4819813345</v>
       </c>
       <c r="G6" t="n">
-        <v>124288.5206287569</v>
+        <v>124565.5464270637</v>
       </c>
       <c r="H6" t="n">
-        <v>134017.563602924</v>
+        <v>134294.5894012307</v>
       </c>
       <c r="I6" t="n">
-        <v>134017.563602924</v>
+        <v>134294.5894012307</v>
       </c>
       <c r="J6" t="n">
-        <v>80245.05271271458</v>
+        <v>80522.0785110213</v>
       </c>
       <c r="K6" t="n">
-        <v>134017.563602924</v>
+        <v>134294.5894012308</v>
       </c>
       <c r="L6" t="n">
-        <v>134017.563602924</v>
+        <v>134294.5894012307</v>
       </c>
       <c r="M6" t="n">
-        <v>134017.563602924</v>
+        <v>134294.5894012308</v>
       </c>
       <c r="N6" t="n">
-        <v>134017.563602924</v>
+        <v>134294.5894012308</v>
       </c>
       <c r="O6" t="n">
-        <v>128712.6485875471</v>
+        <v>128975.4819813344</v>
       </c>
       <c r="P6" t="n">
-        <v>128712.648587547</v>
+        <v>128975.4819813345</v>
       </c>
     </row>
   </sheetData>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>253.1079552302216</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>92.50431878344557</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>191.829514508877</v>
+        <v>22.50014656936975</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,13 +27555,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>373.5228307925502</v>
       </c>
       <c r="C5" t="n">
-        <v>165.8467739769318</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,10 +27628,10 @@
         <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>92.46572744736827</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>92.46572744736828</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>263.0986544447663</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>384.1517380750474</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>39.56814895627872</v>
       </c>
       <c r="V9" t="n">
-        <v>218.8571164548248</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34714,7 +34714,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,10 +34790,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,13 +34939,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,10 +35182,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35258,16 +35258,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35422,10 +35422,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,16 +35653,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>91.61977832229879</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,13 +35966,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36917,10 +36917,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37634,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O45" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982157.4146950694</v>
+        <v>983864.5324247067</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6514427.880260433</v>
+        <v>6571248.199128941</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25.19384698280639</v>
       </c>
       <c r="F2" t="n">
-        <v>153.7680905114898</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>183.2728386341077</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>65.17935300803268</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>31.1509994400877</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>186.3732331246961</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>34.66067414728059</v>
       </c>
     </row>
     <row r="10">
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>74.95904355882617</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0294181666926</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1701,10 +1703,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>62.88143347497287</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>37.36227613112857</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -1895,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>120.6787096659971</v>
+        <v>51.87748497259537</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,73 +2083,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.249728832748761</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3.26531605719669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>7.833310151693974</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2412,7 +2414,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2558,67 +2560,67 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>74.49518425430648</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2801,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>4.122280040031055</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>81.96584385420475</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2989,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.80888552205021</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>56.09847647000858</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3353,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>70.63127589868714</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,10 +3365,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>213.2886388704393</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>5.4761733385883</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,25 +3824,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>81.96584385420472</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.0201173812374</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>83.39277571254232</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.80116626716755</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>178.5101703859089</v>
       </c>
       <c r="F2" t="n">
-        <v>251.5625096843836</v>
+        <v>124.457110779899</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>85.87524403801982</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>265.9510956226784</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>203.9585006715719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3758372163137</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>29.03990215807806</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="T3" t="n">
-        <v>518.7152536647734</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="U3" t="n">
-        <v>518.7152536647734</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="V3" t="n">
-        <v>518.7152536647734</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="W3" t="n">
-        <v>518.7152536647734</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="X3" t="n">
-        <v>333.5911742363817</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>333.5911742363817</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.6989813239244</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>443.6989813239244</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>453.0030327087026</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>453.0030327087026</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>453.0030327087026</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>453.0030327087026</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>453.0030327087026</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>453.0030327087026</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>453.0030327087026</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>506.1297083336119</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>16.44142755506243</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>219.90409354896</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>463.0946480769296</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C8" t="n">
-        <v>463.0946480769296</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D8" t="n">
-        <v>463.0946480769296</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E8" t="n">
-        <v>255.5008658160403</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F8" t="n">
-        <v>47.90708355515102</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>670.6884303378189</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>670.6884303378189</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>670.6884303378189</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U8" t="n">
-        <v>670.6884303378189</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V8" t="n">
-        <v>670.6884303378189</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W8" t="n">
-        <v>670.6884303378189</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X8" t="n">
-        <v>670.6884303378189</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y8" t="n">
-        <v>463.0946480769296</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>431.628992076841</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>224.0352098159517</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>224.0352098159517</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>224.0352098159517</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>446.4674385625565</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>238.8736563016672</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>31.27987404077794</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>189.1984156022267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>189.1984156022267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>189.1984156022267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>189.1984156022267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>189.1984156022267</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G14" t="n">
-        <v>189.1984156022267</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H14" t="n">
-        <v>189.1984156022267</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>604.3859801240053</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>396.792197863116</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>189.1984156022267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>189.1984156022267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>189.1984156022267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>189.1984156022267</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>784.3317048933958</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>609.8786756122688</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D15" t="n">
-        <v>460.9442659510175</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E15" t="n">
-        <v>301.706810945562</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>232.5025681519757</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>784.3317048933958</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>784.3317048933958</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E17" t="n">
+        <v>962.2293816994886</v>
+      </c>
+      <c r="F17" t="n">
+        <v>718.7806050553886</v>
+      </c>
+      <c r="G17" t="n">
         <v>475.3318284112885</v>
-      </c>
-      <c r="C17" t="n">
-        <v>475.3318284112885</v>
-      </c>
-      <c r="D17" t="n">
-        <v>475.3318284112885</v>
-      </c>
-      <c r="E17" t="n">
-        <v>475.3318284112885</v>
-      </c>
-      <c r="F17" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="G17" t="n">
-        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
         <v>231.8830517671884</v>
@@ -5543,22 +5545,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>466.183833194304</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C18" t="n">
-        <v>466.183833194304</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D18" t="n">
-        <v>317.2494235330527</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>158.0119685275972</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5630,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>842.159468979326</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="W18" t="n">
-        <v>842.159468979326</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X18" t="n">
-        <v>842.159468979326</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y18" t="n">
-        <v>634.399170214372</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="19">
@@ -5701,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>509.4769954460863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>509.4769954460863</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>492.48569440222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0326651210929</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>169.0982554598417</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>169.0982554598417</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>22.56369748672662</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>660.701031422288</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>660.701031422288</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22.57944215788615</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>22.57944215788615</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U23" t="n">
-        <v>509.4769954460863</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V23" t="n">
-        <v>266.0282188019862</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W23" t="n">
-        <v>22.57944215788615</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X23" t="n">
-        <v>22.57944215788615</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y23" t="n">
-        <v>22.57944215788615</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.9119902784999</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C24" t="n">
-        <v>312.4589609973729</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D24" t="n">
-        <v>312.4589609973729</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>619.4388494194218</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X27" t="n">
-        <v>544.1911885564859</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y27" t="n">
-        <v>336.430889791532</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>660.701031422288</v>
+        <v>23.44506234256733</v>
       </c>
       <c r="C30" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>501.4635764168325</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>354.9290184437175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>216.198193026333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>102.8290574339123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X30" t="n">
-        <v>660.701031422288</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y30" t="n">
-        <v>660.701031422288</v>
+        <v>191.6603993626354</v>
       </c>
     </row>
     <row r="31">
@@ -6637,13 +6639,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>291.8877337080889</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C33" t="n">
-        <v>291.8877337080889</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D33" t="n">
-        <v>291.8877337080889</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>189.3154064501168</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>75.94627085769615</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>318.9674160535941</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>318.9674160535941</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.9674160535941</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="34">
@@ -6889,13 +6891,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="C36" t="n">
-        <v>352.9294114938717</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D36" t="n">
-        <v>203.9950018326204</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7022,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7050,16 +7052,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>748.6140859445359</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>748.6140859445359</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>748.6140859445359</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>540.853787179582</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>348.0024326625565</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C38" t="n">
-        <v>348.0024326625565</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D38" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>348.0024326625565</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X38" t="n">
-        <v>348.0024326625565</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y38" t="n">
-        <v>348.0024326625565</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>358.5031156175915</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>184.0500863364645</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>526.7184526376595</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>526.7184526376595</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7363,19 +7365,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>639.4279001397708</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V42" t="n">
-        <v>406.8838132313431</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W42" t="n">
-        <v>199.2900309704538</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X42" t="n">
-        <v>199.2900309704538</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X44" t="n">
-        <v>224.0352098159517</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>305.7142837842288</v>
+        <v>426.903709034957</v>
       </c>
       <c r="C45" t="n">
-        <v>305.7142837842288</v>
+        <v>252.45067975383</v>
       </c>
       <c r="D45" t="n">
-        <v>305.7142837842288</v>
+        <v>103.5162700925787</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7142837842288</v>
+        <v>103.5162700925787</v>
       </c>
       <c r="F45" t="n">
-        <v>305.7142837842288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>166.9834583668443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>53.6143227744236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X45" t="n">
-        <v>513.308066045118</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y45" t="n">
-        <v>305.7142837842288</v>
+        <v>426.903709034957</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>151.2801117021122</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,19 +8300,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,13 +8461,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,13 +8698,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
-        <v>234.2160227667432</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,19 +8932,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>401.0105146732905</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>230.174158102173</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,19 +10670,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23312,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="12">
@@ -23334,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>91.57414009104117</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>237.0049211400612</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>39.44647140371328</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23546,13 +23548,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23589,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>168.4107090723489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23738,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,10 +23785,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2863534910952</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>112.1218774834282</v>
+        <v>180.9231021768299</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.0937883304619</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24166,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24175,10 +24177,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>351.4177255634863</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>149.811770303707</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24300,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24446,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>90.01494526515906</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>131.277800949171</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24689,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>168.5862189482847</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>7.430788997210328</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,19 +24812,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24877,16 +24879,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,19 +24967,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>139.7242981278171</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>33.29815638140649</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25199,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25239,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>87.01380455671381</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,10 +25253,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>19.51194827898593</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>138.0053911458572</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>141.9688922260505</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>70.32553552659914</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25710,25 +25712,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>65.47922171043403</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>24.66257839606692</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,22 +25915,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>61.67643668084156</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>52.59546658424753</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>979244.2649088686</v>
+        <v>966394.1347484364</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>979244.2649088686</v>
+        <v>982245.0410987883</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>979244.2649088686</v>
+        <v>982245.0410987883</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410526.9679401458</v>
+        <v>432434.5631969671</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410526.9679401458</v>
+        <v>432434.5631969672</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432434.5631969672</v>
+        <v>432434.5631969671</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432434.5631969671</v>
+        <v>432434.5631969672</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432434.5631969671</v>
+        <v>432434.5631969672</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410526.9679401458</v>
+        <v>432434.5631969671</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410526.9679401458</v>
+        <v>432434.5631969671</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="F2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="G2" t="n">
         <v>207700.8406641654</v>
@@ -26338,7 +26340,7 @@
         <v>207700.8406641654</v>
       </c>
       <c r="K2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="L2" t="n">
         <v>207700.8406641654</v>
@@ -26347,13 +26349,13 @@
         <v>207700.8406641655</v>
       </c>
       <c r="N2" t="n">
+        <v>207700.8406641654</v>
+      </c>
+      <c r="O2" t="n">
         <v>207700.8406641655</v>
       </c>
-      <c r="O2" t="n">
-        <v>197197.0522936645</v>
-      </c>
       <c r="P2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344263.9595179307</v>
+        <v>372380.6912773507</v>
       </c>
       <c r="C4" t="n">
-        <v>344263.9595179307</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="D4" t="n">
-        <v>344263.9595179308</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>55726.0853704826</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="F4" t="n">
-        <v>55726.0853704826</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="G4" t="n">
         <v>58752.58249917302</v>
@@ -26442,22 +26444,22 @@
         <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="L4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="M4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="N4" t="n">
-        <v>58752.582499173</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="O4" t="n">
-        <v>55726.08537048261</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="P4" t="n">
-        <v>55726.0853704826</v>
+        <v>58752.58249917302</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53890.3051237092</v>
+        <v>85955.97386462</v>
       </c>
       <c r="C6" t="n">
-        <v>122764.0617053991</v>
+        <v>66595.40508111479</v>
       </c>
       <c r="D6" t="n">
-        <v>122764.0617053988</v>
+        <v>127171.7272677828</v>
       </c>
       <c r="E6" t="n">
-        <v>128975.4819813344</v>
+        <v>134294.5894012307</v>
       </c>
       <c r="F6" t="n">
-        <v>128975.4819813345</v>
+        <v>134294.5894012308</v>
       </c>
       <c r="G6" t="n">
-        <v>124565.5464270637</v>
+        <v>134294.5894012307</v>
       </c>
       <c r="H6" t="n">
         <v>134294.5894012307</v>
       </c>
       <c r="I6" t="n">
-        <v>134294.5894012307</v>
+        <v>134294.5894012308</v>
       </c>
       <c r="J6" t="n">
-        <v>80522.0785110213</v>
+        <v>120293.3572609515</v>
       </c>
       <c r="K6" t="n">
+        <v>86037.63646759816</v>
+      </c>
+      <c r="L6" t="n">
         <v>134294.5894012308</v>
-      </c>
-      <c r="L6" t="n">
-        <v>134294.5894012307</v>
       </c>
       <c r="M6" t="n">
         <v>134294.5894012308</v>
       </c>
       <c r="N6" t="n">
+        <v>134294.5894012307</v>
+      </c>
+      <c r="O6" t="n">
         <v>134294.5894012308</v>
       </c>
-      <c r="O6" t="n">
-        <v>128975.4819813344</v>
-      </c>
       <c r="P6" t="n">
-        <v>128975.4819813345</v>
+        <v>134294.5894012307</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>356.7365230894554</v>
       </c>
       <c r="F2" t="n">
-        <v>253.1079552302216</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.77058992693726</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>22.50014656936975</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>138.7867036770776</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373.5228307925502</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>92.46572744736827</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>384.1517380750474</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,13 +27900,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,19 +27988,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>39.56814895627872</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>171.0220216300238</v>
       </c>
     </row>
     <row r="10">
@@ -28020,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O12" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>171.5974510766996</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>91.61977832229879</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.8112771299739</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,13 +37785,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983864.5324247067</v>
+        <v>915013.2359832695</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.19384698280639</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>220.8837963815379</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>52.42556848774763</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>61.68827609322839</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>230.2038249569697</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>34.66067414728059</v>
+        <v>133.3034891412076</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,73 +1372,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.95904355882617</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="13">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,70 +1612,70 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>62.82409118961541</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1706,7 +1706,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>62.88143347497287</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1852,64 +1852,64 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>37.18676625519284</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>51.87748497259537</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>97.35820752796809</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.88143347497289</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>46.79470495664743</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2478,73 +2478,73 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>110.4285199878827</v>
       </c>
       <c r="C27" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367362</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2794,67 +2794,67 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>56.17030901074568</v>
       </c>
       <c r="C30" t="n">
-        <v>4.122280040031055</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>56.09847647000858</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,31 +3265,31 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>110.0817264605106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>213.2886388704393</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>78.33112789111307</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3748,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,25 +3784,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,28 +3821,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>81.96584385420472</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>78.33112789111307</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>241.0142888776591</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="45">
@@ -4058,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>83.39277571254232</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>191.6709900697501</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,67 +4137,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>178.5101703859089</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>124.457110779899</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4333,19 +4333,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>55.11790488024824</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4354,28 +4354,28 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4415,46 +4415,46 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>59.08819457959154</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
         <v>4.28100232079598</v>
@@ -4509,31 +4509,31 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4658,40 +4658,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>901.7457655174762</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>901.7457655174762</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>699.5591708762422</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>432.9682111954345</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>55.04605772994853</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X9" t="n">
-        <v>55.04605772994853</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>601.1835482155025</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
         <v>19.28114311021272</v>
@@ -5123,49 +5123,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C15" t="n">
-        <v>789.6041262295092</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="D15" t="n">
-        <v>640.669716568258</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E15" t="n">
-        <v>481.4322615628025</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>334.8977035896875</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>196.166878172303</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>82.7977425798823</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5366,13 +5366,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5396,13 +5396,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,13 +5600,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>825.3252359067615</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>597.1016176431506</v>
       </c>
       <c r="V18" t="n">
-        <v>911.6556555383177</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="W18" t="n">
-        <v>668.2068788942177</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X18" t="n">
-        <v>668.2068788942177</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="19">
@@ -5700,7 +5700,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
@@ -5737,10 +5737,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y23" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>900.5405560409666</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C24" t="n">
-        <v>726.0875267598396</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D24" t="n">
-        <v>577.1531170985884</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E24" t="n">
-        <v>417.9156620931329</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6192,7 +6192,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6265,13 +6265,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.8099852548154</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X27" t="n">
-        <v>310.5702840197694</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.8099852548154</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>877.0247885897328</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6484,16 +6484,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
         <v>506.1786963984129</v>
@@ -6502,13 +6502,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.44506234256733</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,7 +6554,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>399.5118995681682</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X30" t="n">
-        <v>191.6603993626354</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y30" t="n">
-        <v>191.6603993626354</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="31">
@@ -6645,22 +6645,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C33" t="n">
-        <v>487.2836868729568</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="D33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>328.0462318675013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>328.0462318675013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>189.3154064501168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>75.94627085769615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6782,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="34">
@@ -6891,13 +6891,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>569.2254314512334</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>372.6384501595139</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C36" t="n">
-        <v>372.6384501595139</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D36" t="n">
-        <v>223.7040404982626</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E36" t="n">
-        <v>223.7040404982626</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F36" t="n">
-        <v>223.7040404982626</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G36" t="n">
         <v>223.7040404982626</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7052,16 +7052,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>748.6140859445359</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>748.6140859445359</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>748.6140859445359</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>540.853787179582</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.32787816303323</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C38" t="n">
-        <v>82.32787816303323</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W38" t="n">
-        <v>569.2254314512334</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.7766548071333</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>237.1343199327619</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>237.1343199327619</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>237.1343199327619</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7259,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D41" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E41" t="n">
-        <v>30.58726043968704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F41" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G41" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>660.701031422288</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C42" t="n">
-        <v>660.701031422288</v>
+        <v>237.1343199327619</v>
       </c>
       <c r="D42" t="n">
-        <v>577.9072497513741</v>
+        <v>237.1343199327619</v>
       </c>
       <c r="E42" t="n">
-        <v>418.6697947459187</v>
+        <v>237.1343199327619</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7508,7 +7508,7 @@
         <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>660.701031422288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X42" t="n">
-        <v>660.701031422288</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y42" t="n">
-        <v>660.701031422288</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>752.9257720901863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>509.4769954460863</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V44" t="n">
-        <v>509.4769954460863</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W44" t="n">
-        <v>266.0282188019862</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X44" t="n">
-        <v>22.57944215788615</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y44" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>426.903709034957</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="C45" t="n">
-        <v>252.45067975383</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="D45" t="n">
-        <v>103.5162700925787</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="E45" t="n">
-        <v>103.5162700925787</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="V45" t="n">
-        <v>634.6640077999109</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="W45" t="n">
-        <v>634.6640077999109</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="X45" t="n">
-        <v>634.6640077999109</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="Y45" t="n">
-        <v>426.903709034957</v>
+        <v>394.8461556435558</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>185.3248140400396</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,16 +8780,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9248,16 +9248,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10202,10 +10202,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>198.1125443848066</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10907,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11156,10 +11156,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11390,13 +11390,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,10 +23260,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23305,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>91.57414009104117</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="13">
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23576,13 +23576,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>109.8844077987003</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.5151993764422</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23636,7 +23636,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,19 +23694,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>269.1307943144919</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>162.9779624396288</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>180.9231021768299</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23940,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24037,7 +24037,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>50.08685803667066</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>150.1070334262686</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24180,10 +24180,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>103.6517501748945</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>125.9137940316683</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>56.10466366198463</v>
       </c>
       <c r="C27" t="n">
-        <v>90.01494526515906</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24642,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434959</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>138.6760617849701</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>110.3628746391217</v>
       </c>
       <c r="C30" t="n">
-        <v>168.5862189482847</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24818,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,7 +24925,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,10 +24964,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,25 +24998,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>43.73201020175699</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>33.29815638140649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,31 +25153,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>27.26179070270005</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>19.51194827898593</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>292.2667739183906</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>320.892250521429</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,10 +25481,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>66.73808450227081</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,10 +25526,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207158</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25636,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25709,28 +25709,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>65.47922171043403</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>66.73808450227081</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>336.2094860585705</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25915,10 +25915,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>10.33136403017744</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>61.67643668084156</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>34.27039201122469</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>432434.5631969672</v>
+        <v>432434.5631969671</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432434.5631969672</v>
+        <v>432434.5631969671</v>
       </c>
     </row>
     <row r="8">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="F2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="G2" t="n">
         <v>207700.8406641654</v>
@@ -26346,13 +26346,13 @@
         <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="N2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="O2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="P2" t="n">
         <v>207700.8406641654</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372380.6912773507</v>
+        <v>372380.6912773508</v>
       </c>
       <c r="C4" t="n">
         <v>337698.1101336324</v>
@@ -26441,19 +26441,19 @@
         <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
-        <v>58752.58249917302</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="K4" t="n">
         <v>58752.58249917302</v>
       </c>
       <c r="L4" t="n">
-        <v>58752.58249917302</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="M4" t="n">
         <v>58752.58249917302</v>
       </c>
       <c r="N4" t="n">
-        <v>58752.58249917302</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="O4" t="n">
         <v>58752.58249917302</v>
@@ -26524,46 +26524,46 @@
         <v>85955.97386462</v>
       </c>
       <c r="C6" t="n">
-        <v>66595.40508111479</v>
+        <v>66595.40508111491</v>
       </c>
       <c r="D6" t="n">
         <v>127171.7272677828</v>
       </c>
       <c r="E6" t="n">
-        <v>134294.5894012307</v>
+        <v>122076.5787811902</v>
       </c>
       <c r="F6" t="n">
-        <v>134294.5894012308</v>
+        <v>122076.5787811903</v>
       </c>
       <c r="G6" t="n">
-        <v>134294.5894012307</v>
+        <v>122076.5787811902</v>
       </c>
       <c r="H6" t="n">
-        <v>134294.5894012307</v>
+        <v>122076.5787811902</v>
       </c>
       <c r="I6" t="n">
-        <v>134294.5894012308</v>
+        <v>122076.5787811903</v>
       </c>
       <c r="J6" t="n">
-        <v>120293.3572609515</v>
+        <v>108075.346640911</v>
       </c>
       <c r="K6" t="n">
-        <v>86037.63646759816</v>
+        <v>73819.62584755763</v>
       </c>
       <c r="L6" t="n">
-        <v>134294.5894012308</v>
+        <v>122076.5787811903</v>
       </c>
       <c r="M6" t="n">
-        <v>134294.5894012308</v>
+        <v>122076.5787811903</v>
       </c>
       <c r="N6" t="n">
-        <v>134294.5894012307</v>
+        <v>122076.5787811903</v>
       </c>
       <c r="O6" t="n">
-        <v>134294.5894012308</v>
+        <v>122076.5787811902</v>
       </c>
       <c r="P6" t="n">
-        <v>134294.5894012307</v>
+        <v>122076.5787811902</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>356.7365230894554</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>100.311230012675</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.77058992693726</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4288530710251</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27554,13 +27554,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>138.7867036770776</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27596,10 +27596,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.082529506229</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8771690273874</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>38.46955805941474</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>185.0989125581653</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27906,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27952,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>171.0220216300238</v>
+        <v>72.37920663609674</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>69.0973563527908</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="P3" t="n">
-        <v>51.35040662570938</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36922,10 +36922,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>55.51629994036219</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37627,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37876,10 +37876,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38110,13 +38110,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
